--- a/data_processed/20250715/BTCUSDVOLSURFACE_REGULARIZED_20250715.xlsx
+++ b/data_processed/20250715/BTCUSDVOLSURFACE_REGULARIZED_20250715.xlsx
@@ -46035,7 +46035,7 @@
       </c>
       <c r="G1774" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -48417,7 +48417,7 @@
       </c>
       <c r="G1860" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -50922,7 +50922,7 @@
       </c>
       <c r="G1957" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>

--- a/data_processed/20250715/BTCUSDVOLSURFACE_REGULARIZED_20250715.xlsx
+++ b/data_processed/20250715/BTCUSDVOLSURFACE_REGULARIZED_20250715.xlsx
@@ -12431,7 +12431,7 @@
       </c>
       <c r="G446" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -45869,7 +45869,7 @@
       </c>
       <c r="G1768" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -46035,7 +46035,7 @@
       </c>
       <c r="G1774" t="inlineStr">
         <is>
-          <t>CS,CA,BF</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -46064,7 +46064,7 @@
       </c>
       <c r="G1775" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -46263,7 +46263,7 @@
       </c>
       <c r="G1782" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -47010,7 +47010,7 @@
       </c>
       <c r="G1809" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -47039,7 +47039,7 @@
       </c>
       <c r="G1810" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -47068,7 +47068,7 @@
       </c>
       <c r="G1811" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -48044,7 +48044,7 @@
       </c>
       <c r="G1847" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -48247,7 +48247,7 @@
       </c>
       <c r="G1854" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -48417,7 +48417,7 @@
       </c>
       <c r="G1860" t="inlineStr">
         <is>
-          <t>CS,CA,BF</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -50607,7 +50607,7 @@
       </c>
       <c r="G1946" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -50893,7 +50893,7 @@
       </c>
       <c r="G1956" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -50922,7 +50922,7 @@
       </c>
       <c r="G1957" t="inlineStr">
         <is>
-          <t>CS,CA,BF</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -51829,7 +51829,7 @@
       </c>
       <c r="G1992" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -51974,7 +51974,7 @@
       </c>
       <c r="G1997" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -52819,7 +52819,7 @@
       </c>
       <c r="G2030" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
